--- a/final_project/gru_gbrbm_H_div_2 (drop 0.1)/type2/pd_results_W20_H200_B32.xlsx
+++ b/final_project/gru_gbrbm_H_div_2 (drop 0.1)/type2/pd_results_W20_H200_B32.xlsx
@@ -502,23 +502,25 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5495495495495496</v>
-      </c>
-      <c r="B2" t="inlineStr"/>
+        <v>0.5468277945619335</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.9890710382513661</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5495495495495496</v>
+        <v>0.5435435435435435</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7093023255813954</v>
+        <v>0.7042801556420234</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4864864864864865</v>
+        <v>0.4924924924924925</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -526,19 +528,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.07250886661134787</v>
+        <v>0.06671387337408441</v>
       </c>
       <c r="J2" t="n">
-        <v>928.2932874808942</v>
+        <v>872.4658270527026</v>
       </c>
       <c r="K2" t="n">
-        <v>1148591.008089209</v>
+        <v>1073449.461171138</v>
       </c>
       <c r="L2" t="n">
-        <v>1071.723382262983</v>
+        <v>1036.074061624524</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7864449183552928</v>
+        <v>0.8004158262537393</v>
       </c>
     </row>
   </sheetData>
